--- a/biology/Botanique/Lilaea/Lilaea.xlsx
+++ b/biology/Botanique/Lilaea/Lilaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilaea est un genre végétal de la famille des Juncaginaceae. Ce genre monotypique est actuellement intégré au genre Triglochin et son espèce Lilaea scilloides se nomme alors Triglochin scilloides (Poir.) Mering &amp; Kadereit
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon ITIS :
 Lilaea scilloides (Poir.) Hauman
